--- a/data/case1/14/Plm2_14.xlsx
+++ b/data/case1/14/Plm2_14.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.11648230076377786</v>
+        <v>-0.10522383444921957</v>
       </c>
       <c r="B1" s="0">
-        <v>0.11592200283766374</v>
+        <v>0.10479246395502173</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.003613572271310872</v>
+        <v>-0.015034255586574119</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.004564241990189899</v>
+        <v>0.014065861576341376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.10749863359978917</v>
+        <v>0.088868725697043516</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.10812528540824573</v>
+        <v>-0.089417236350715967</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.17586845878746971</v>
+        <v>-0.19457497554336456</v>
       </c>
       <c r="B4" s="0">
-        <v>0.17480182510068332</v>
+        <v>0.19333456897670587</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.16880182542861366</v>
+        <v>-0.18733456952467886</v>
       </c>
       <c r="B5" s="0">
-        <v>0.16664968293305105</v>
+        <v>0.18482026627278625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.065763575542006514</v>
+        <v>-0.059927525861781294</v>
       </c>
       <c r="B6" s="0">
-        <v>0.065708883254700368</v>
+        <v>0.059877338320156959</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.045708883657868071</v>
+        <v>-0.039877338977140298</v>
       </c>
       <c r="B7" s="0">
-        <v>0.045612113886448924</v>
+        <v>0.039796870560669717</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.02561211429210708</v>
+        <v>-0.019796871220780332</v>
       </c>
       <c r="B8" s="0">
-        <v>0.025563850224765261</v>
+        <v>0.019770141042073419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.019563850570214036</v>
+        <v>-0.013770141617934328</v>
       </c>
       <c r="B9" s="0">
-        <v>0.019531147726539189</v>
+        <v>0.013757291101064162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.013531148073603561</v>
+        <v>-0.007757291678672118</v>
       </c>
       <c r="B10" s="0">
-        <v>0.013530872887415057</v>
+        <v>0.0077583302784134389</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0090308732279602566</v>
+        <v>-0.0032583308468119299</v>
       </c>
       <c r="B11" s="0">
-        <v>0.0090252492758153835</v>
+        <v>0.0032587399175980636</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.026118833776853645</v>
+        <v>-0.049121472950132805</v>
       </c>
       <c r="B12" s="0">
-        <v>0.026044213180489884</v>
+        <v>0.048668097286760137</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.020044213530895583</v>
+        <v>-0.03915133565518758</v>
       </c>
       <c r="B13" s="0">
-        <v>0.020028798412312199</v>
+        <v>0.039084849098864893</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.0080287987902121216</v>
+        <v>-0.027084849726634275</v>
       </c>
       <c r="B14" s="0">
-        <v>0.0080264487035890397</v>
+        <v>0.02705280235262375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0020264490550712111</v>
+        <v>-0.021052802944928395</v>
       </c>
       <c r="B15" s="0">
-        <v>0.0020260092634414306</v>
+        <v>0.021027581245259164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.020363368804698023</v>
+        <v>-0.015027581839187398</v>
       </c>
       <c r="B16" s="0">
-        <v>-0.020445289292451818</v>
+        <v>0.015004403272817601</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090043356625209015</v>
+        <v>-0.0090044038690431094</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999996368810287</v>
+        <v>0.0089999993847671433</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.073542189485031884</v>
+        <v>-0.036109943106982456</v>
       </c>
       <c r="B18" s="0">
-        <v>0.073448301651446002</v>
+        <v>0.036096643790990868</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027096962093647203</v>
+        <v>-0.027096644350875998</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013807412218593</v>
+        <v>0.027013668109782341</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013807754442723</v>
+        <v>-0.018013668674269567</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004300952737751</v>
+        <v>0.018004275117158741</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090043012954303947</v>
+        <v>-0.0090042756822317216</v>
       </c>
       <c r="B21" s="0">
-        <v>0.008999999656984059</v>
+        <v>0.0089999994345424383</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093934391948373275</v>
+        <v>-0.09393458783425146</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093625610670132531</v>
+        <v>0.093625899650565003</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084625611011820645</v>
+        <v>-0.084625900214922112</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084125077195643883</v>
+        <v>0.084125060950972497</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042125077689735058</v>
+        <v>-0.042125061728516044</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999503243401</v>
+        <v>0.041999999218595541</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.094886107730904001</v>
+        <v>-0.094897540018962445</v>
       </c>
       <c r="B25" s="0">
-        <v>0.094644671027182881</v>
+        <v>0.094656017118392555</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.08864467136830001</v>
+        <v>-0.088656017689142885</v>
       </c>
       <c r="B26" s="0">
-        <v>0.088333764397322767</v>
+        <v>0.08834436764047382</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.082333764740256665</v>
+        <v>-0.082344368213500108</v>
       </c>
       <c r="B27" s="0">
-        <v>0.081271177918656345</v>
+        <v>0.081276460043884668</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.07527117826935914</v>
+        <v>-0.075276460628732167</v>
       </c>
       <c r="B28" s="0">
-        <v>0.074534890840496359</v>
+        <v>0.074536542293299313</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.062534891223153366</v>
+        <v>-0.062536542922968508</v>
       </c>
       <c r="B29" s="0">
-        <v>0.062169659987681314</v>
+        <v>0.062169901445164655</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.042169660408443832</v>
+        <v>-0.042169902128409209</v>
       </c>
       <c r="B30" s="0">
-        <v>0.042020007347462585</v>
+        <v>0.042019561239425851</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.02702000774953639</v>
+        <v>-0.027019561897143163</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000883293361255</v>
+        <v>0.027000635335372891</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060008837228222589</v>
+        <v>-0.006000636031154194</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999996371642439</v>
+        <v>0.0059999993970762944</v>
       </c>
     </row>
   </sheetData>
